--- a/Page1.xlsx
+++ b/Page1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work Files\ExcelsForLife\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AEM Projects\sightly\sightlySling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D09CFBA-CE11-4CFB-9B85-CF842BA47386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327FD9BC-272D-4EF6-92EC-163363E045D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0AD4C115-2523-44A5-AF65-702D6A1DF061}"/>
   </bookViews>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
-  <si>
-    <t>Jai_ho_Naresh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Naresh's AEM New page</t>
   </si>
   <si>
-    <t>/content/dam/O2Store_Project/en/images/BonsaiPlant.jpg</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
@@ -57,24 +51,12 @@
     <t>Page Title</t>
   </si>
   <si>
-    <t>Jai_ho_Aem</t>
-  </si>
-  <si>
     <t>Pavan's AEM New page</t>
   </si>
   <si>
-    <t>/content/dam/O2Store_Project/en/images/cactus2.jpg</t>
-  </si>
-  <si>
-    <t>Jai_ho_Aem22</t>
-  </si>
-  <si>
     <t>Bhavana's AEM New page</t>
   </si>
   <si>
-    <t>/content/dam/O2Store_Project/en/images/cactus3.jpg</t>
-  </si>
-  <si>
     <t>/conf/O2Store_Project/settings/wcm/templates/o2pdptemplate</t>
   </si>
   <si>
@@ -168,7 +150,28 @@
     <t xml:space="preserve"> be careful when handling3</t>
   </si>
   <si>
-    <t>/content/sightlySling/en</t>
+    <t>pdpDynamic1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pdpDynamic2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pdpDynamic3</t>
+  </si>
+  <si>
+    <t>/content/O2Store_Project/en</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /content/O2Store_Project/en</t>
+  </si>
+  <si>
+    <t>/content/dam/O2Store_Project/en/pic.jpg</t>
+  </si>
+  <si>
+    <t>/content/dam/O2Store_Project/en/pic2.jpg</t>
+  </si>
+  <si>
+    <t>/content/dam/O2Store_Project/en/pic3.jpg</t>
   </si>
 </sst>
 </file>
@@ -523,194 +526,196 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
     <col min="7" max="7" width="54.140625" customWidth="1"/>
+    <col min="12" max="12" width="70.140625" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
       </c>
       <c r="K2">
         <v>499</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
       </c>
       <c r="K3">
         <v>599</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
       </c>
       <c r="K4">
         <v>699</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Page1.xlsx
+++ b/Page1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AEM Projects\sightly\sightlySling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327FD9BC-272D-4EF6-92EC-163363E045D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546F46D-1B15-40D3-A315-29EDCC1C6424}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0AD4C115-2523-44A5-AF65-702D6A1DF061}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Naresh's AEM New page</t>
   </si>
@@ -153,18 +153,9 @@
     <t>pdpDynamic1</t>
   </si>
   <si>
-    <t xml:space="preserve"> pdpDynamic2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pdpDynamic3</t>
-  </si>
-  <si>
     <t>/content/O2Store_Project/en</t>
   </si>
   <si>
-    <t xml:space="preserve"> /content/O2Store_Project/en</t>
-  </si>
-  <si>
     <t>/content/dam/O2Store_Project/en/pic.jpg</t>
   </si>
   <si>
@@ -172,6 +163,12 @@
   </si>
   <si>
     <t>/content/dam/O2Store_Project/en/pic3.jpg</t>
+  </si>
+  <si>
+    <t>pdpDynamic2</t>
+  </si>
+  <si>
+    <t>pdpDynamic3</t>
   </si>
 </sst>
 </file>
@@ -525,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578B2D61-18F7-42CF-B380-96767914E847}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +588,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -621,7 +618,7 @@
         <v>499</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
@@ -632,10 +629,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -665,7 +662,7 @@
         <v>599</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
         <v>27</v>
@@ -676,10 +673,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -709,7 +706,7 @@
         <v>699</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
